--- a/src/test/resources/ExcelData/Skills_ExcelData.xlsx
+++ b/src/test/resources/ExcelData/Skills_ExcelData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naran\eclipse-workspace\UserAPI_RestAssured_BDD\src\test\resources\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naran\eclipse-workspace\RestAssured_BDD\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85BC3DC-F61A-4501-984B-861A33EE75B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047C9713-12B1-4EC2-B941-F4406AA8E192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GET" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="245">
   <si>
     <t>Skill ID</t>
   </si>
@@ -734,23 +734,6 @@
     <t>Invalid</t>
   </si>
   <si>
-    <t>Java41</t>
-  </si>
-  <si>
-    <t>{
-    "skill_id": 516,
-    "skill_name": "Java41",
-    "message_response": "Successfully Created !!"
-}</t>
-  </si>
-  <si>
-    <t>{
-    "timestamp": "2022-04-17T20:42:11.108+00:00",
-    "message": "Failed to create new Skill details as Skill already exists !!",
-    "details": "uri=/Skills"
-}</t>
-  </si>
-  <si>
     <t>Csharp Developer</t>
   </si>
   <si>
@@ -762,26 +745,6 @@
   </si>
   <si>
     <t>{
-    "timestamp": "2022-04-17T21:09:36.935+00:00",
-    "message": "Skill(id- 0) Not Found !!",
-    "details": "uri=/Skills/0"
-}</t>
-  </si>
-  <si>
-    <t>{
-    "message_response": "The record has been deleted !!",
-    "Skill_Id": "104"
-}</t>
-  </si>
-  <si>
-    <t>{
-    "timestamp": "2022-04-17T21:34:35.763+00:00",
-    "message": "Skill(id- 10) Not Found !!",
-    "details": "uri=/Skills/10"
-}</t>
-  </si>
-  <si>
-    <t>{
     "message_response": "The record has been deleted !!",
     "Skill_Id": "161"
 }</t>
@@ -791,6 +754,65 @@
     "timestamp": "2022-04-17T21:38:24.325+00:00",
     "message": "Skill(id- 10) Not Found !!",
     "details": "uri=/Skills/10"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "timestamp": "2022-04-21T19:49:58.552+00:00",
+    "message": "Skill(id- 0) Not Found !!",
+    "details": "uri=/Skills/0"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "skill_id": 609,
+    "skill_name": "Java47",
+    "message_response": "Successfully Created !!"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "timestamp": "2022-04-21T19:57:22.984+00:00",
+    "message": "Failed to create new Skill details as Skill already exists !!",
+    "details": "uri=/Skills"
+}</t>
+  </si>
+  <si>
+    <t>Java48</t>
+  </si>
+  <si>
+    <t>{
+    "skill_id": 611,
+    "skill_name": "Java48",
+    "message_response": "Successfully Created !!"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "timestamp": "2022-04-21T19:59:00.047+00:00",
+    "message": "Failed to create new Skill details as Skill already exists !!",
+    "details": "uri=/Skills"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "timestamp": "2022-04-21T20:02:43.197+00:00",
+    "message": "Skill(id- 0) Not Found !!",
+    "details": "uri=/Skills/0"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "timestamp": "2022-04-21T20:13:36.598+00:00",
+    "message": "Skill(id- 0) Not Found !!",
+    "details": "uri=/Skills/0"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "timestamp": "2022-04-21T20:17:22.147+00:00",
+    "message": "Skill(id- 0) Not Found !!",
+    "details": "uri=/Skills/0"
 }</t>
   </si>
 </sst>
@@ -2964,8 +2986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FBC90D-23B3-4CFF-BFF5-39B7080EDE20}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2993,16 +3015,16 @@
         <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C2" t="s">
         <v>228</v>
       </c>
-      <c r="D2">
-        <v>201</v>
+      <c r="D2" t="n">
+        <v>201.0</v>
       </c>
       <c r="E2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -3015,11 +3037,11 @@
       <c r="C3" t="s">
         <v>229</v>
       </c>
-      <c r="D3">
-        <v>400</v>
+      <c r="D3" t="n">
+        <v>400.0</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -3065,16 +3087,16 @@
         <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
         <v>228</v>
       </c>
-      <c r="E2">
-        <v>201</v>
+      <c r="E2" t="n">
+        <v>201.0</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -3085,16 +3107,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
         <v>229</v>
       </c>
-      <c r="E3">
-        <v>404</v>
+      <c r="E3" t="n">
+        <v>404.0</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3106,7 +3128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FBAB86-0B6F-4EB2-82C3-DCD85F50CC6B}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -3136,11 +3158,11 @@
       <c r="C2" t="s">
         <v>228</v>
       </c>
-      <c r="D2" t="n">
-        <v>200.0</v>
+      <c r="D2">
+        <v>200</v>
       </c>
       <c r="E2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -3153,11 +3175,11 @@
       <c r="C3" t="s">
         <v>229</v>
       </c>
-      <c r="D3" t="n">
-        <v>404.0</v>
+      <c r="D3">
+        <v>404</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
